--- a/outputs/raw/Awarded_Amount_List.xlsx
+++ b/outputs/raw/Awarded_Amount_List.xlsx
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>221969.62</v>
+        <v>110984.81</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>221969.62</v>
+        <v>110984.81</v>
       </c>
     </row>
     <row r="8">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>89280.81</v>
+        <v>44640.405</v>
       </c>
     </row>
     <row r="21">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>89280.81</v>
+        <v>44640.405</v>
       </c>
     </row>
     <row r="22">

--- a/outputs/raw/Awarded_Amount_List.xlsx
+++ b/outputs/raw/Awarded_Amount_List.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RFQ119</t>
+          <t>RFQ1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CUSTOMER2</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -481,25 +481,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Blanks</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>61714.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RFQ131</t>
+          <t>RFQ106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CUSTOMER10</t>
+          <t>CUST_8</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -507,29 +509,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>87737.88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RFQ146</t>
+          <t>RFQ110</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CUSTOMER23</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -538,20 +542,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>James Aaron</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>60857</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RFQ146</t>
+          <t>RFQ111</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CUSTOMER23</t>
+          <t>CUST_10</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -559,81 +565,83 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>James Aaron</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>86552.39999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RFQ154</t>
+          <t>RFQ112</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CUSTOMER22</t>
+          <t>CUST_10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>110984.81</v>
+        <v>50246.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RFQ154</t>
+          <t>RFQ128</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CUSTOMER22</t>
+          <t>CUST_7</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Blanks</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Robyn George</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>110984.81</v>
+        <v>65527</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RFQ16</t>
+          <t>RFQ129</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CUSTOMER17</t>
+          <t>CUST_14</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -646,102 +654,106 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>David Tarver</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>83424.44</v>
+        <v>76196.96000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RFQ18</t>
+          <t>RFQ13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CUSTOMER8</t>
+          <t>CUST_2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>243894.36</v>
+        <v>60806.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RFQ19</t>
+          <t>RFQ133</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CUSTOMER6</t>
+          <t>CUST_16</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Blanks</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>74836.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RFQ209</t>
+          <t>RFQ141</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CUSTOMER6</t>
+          <t>CUST_19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>52172.23</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RFQ22</t>
+          <t>RFQ142</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CUSTOMER19</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -749,29 +761,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>David Tarver</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>78010.88</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RFQ22</t>
+          <t>RFQ144</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CUSTOMER19</t>
+          <t>CUST_15</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -780,84 +794,86 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>David Tarver</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>78029.72</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RFQ228</t>
+          <t>RFQ146</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CUSTOMER13</t>
+          <t>CUST_1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>156056.84</v>
+        <v>89737.60000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RFQ241</t>
+          <t>RFQ147</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CUSTOMER22</t>
+          <t>CUST_2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Blanks</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>79033.5</v>
+        <v>89510.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RFQ25</t>
+          <t>RFQ151</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CUSTOMER4</t>
+          <t>CUST_8</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Blanks</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -866,18 +882,18 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>181882.07</v>
+        <v>88627.77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RFQ270</t>
+          <t>RFQ154</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CUSTOMER7</t>
+          <t>CUST_10</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -885,57 +901,59 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>72853.75</v>
+        <v>62916.61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RFQ271</t>
+          <t>RFQ158</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CUSTOMER20</t>
+          <t>CUST_15</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Alfred Ludwig</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>67813.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RFQ299</t>
+          <t>RFQ161</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CUSTOMER1</t>
+          <t>CUST_13</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -944,30 +962,30 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>48863.5</v>
+        <v>87501.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RFQ302</t>
+          <t>RFQ163</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CUSTOMER18</t>
+          <t>CUST_15</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -976,128 +994,130 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>44640.405</v>
+        <v>96709</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RFQ302</t>
+          <t>RFQ167</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CUSTOMER18</t>
+          <t>CUST_2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Blanks</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>44640.405</v>
+        <v>37700.31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RFQ317</t>
+          <t>RFQ169</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CUSTOMER6</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>57215.62</v>
+        <v>40104.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RFQ322</t>
+          <t>RFQ169</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CUSTOMER14</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>40104.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RFQ326</t>
+          <t>RFQ170</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CUSTOMER1</t>
+          <t>CUST_11</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Blanks</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>59472</v>
+        <v>74670</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RFQ386</t>
+          <t>RFQ177</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CUSTOMER8</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1105,33 +1125,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>61975.52</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RFQ390</t>
+          <t>RFQ185</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CUSTOMER23</t>
+          <t>CUST_12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1140,26 +1162,26 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>85338.3</v>
+        <v>86653.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RFQ414</t>
+          <t>RFQ188</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CUSTOMER22</t>
+          <t>CUST_14</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Blanks</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1167,87 +1189,5273 @@
           <t>Randy Byerly</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>88083.32000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RFQ441</t>
+          <t>RFQ190</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CUSTOMER5</t>
+          <t>CUST_5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>147088.52</v>
+        <v>39478.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RFQ451</t>
+          <t>RFQ190</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CUSTOMER14</t>
+          <t>CUST_5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>39478.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>RFQ193</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CUST_12</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>82506.06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RFQ195</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CUST_15</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>83132.31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RFQ2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>52329.06</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RFQ20</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>50503.12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RFQ202</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CUST_13</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>77030.94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RFQ205</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>19712.7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RFQ205</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>19712.7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RFQ206</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>64944.75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RFQ212</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>81706.08</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RFQ214</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>84643.19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RFQ218</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CUST_14</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>81724.74000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RFQ22</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>63484.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RFQ220</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>38152.39</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RFQ220</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>38152.39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RFQ23</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CUST_11</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RFQ232</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>48579.54</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RFQ233</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>71015.97</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RFQ237</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>85183.89</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RFQ238</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>74133.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RFQ240</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CUST_17</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>88629.12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RFQ245</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>64821.55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RFQ247</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CUST_11</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>51960.04</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RFQ249</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>68712.3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RFQ256</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>56826.06</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RFQ258</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>51816.75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RFQ260</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CUST_5</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>55337.13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>RFQ263</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>89567.92</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RFQ264</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>76092.39999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>RFQ272</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>63414.33</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RFQ275</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>65203.05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>RFQ276</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CUST_5</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>61268.7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>RFQ277</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CUST_14</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>75569.82000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>RFQ279</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>79444.32000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>RFQ28</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CUST_19</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>54566.6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RFQ280</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>54537.6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>RFQ281</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CUST_15</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>54025.65</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>RFQ288</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>74150.96000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>RFQ290</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>72093.56</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RFQ295</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CUST_3</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>86167.2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>RFQ297</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>54862.5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RFQ299</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>43309</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>RFQ3</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>77469.63</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>RFQ30</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CUST_13</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>52874.25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>RFQ301</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>81870.75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RFQ305</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CUST_14</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>59942.6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>RFQ31</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>74716.74000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>RFQ310</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>77752.39999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>RFQ311</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CUST_14</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>52263.28</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>RFQ312</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>69697.52</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>RFQ314</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CUST_15</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>53752.14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>RFQ318</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CUST_16</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>69148</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>RFQ319</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>79002.28</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RFQ322</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CUST_13</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>62339.2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>RFQ330</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CUST_12</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>80110.58</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>RFQ334</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CUST_16</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>46666.62</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>RFQ334</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CUST_16</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>46666.62</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RFQ337</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>70099.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>RFQ338</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>72402.72</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RFQ343</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>55112.57</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>RFQ345</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CUST_4</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>84628.44</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>RFQ349</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>40321.61</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RFQ349</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>40321.61</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>RFQ353</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>87860.53999999999</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>RFQ371</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CUST_16</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>37392.29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>RFQ371</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CUST_16</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>37392.29</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RFQ372</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CUST_4</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>89001.64</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>RFQ373</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CUST_16</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>62850.33</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>RFQ377</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CUST_12</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>84416.58</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>RFQ378</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>75564.36</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>RFQ38</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CUST_14</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>69687.48</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RFQ380</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>75203.10000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>RFQ382</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>31185.26</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>RFQ382</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>31185.26</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RFQ386</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>53772.39</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>RFQ387</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>74459.28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>RFQ388</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CUST_5</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>25574.15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>RFQ388</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CUST_5</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>25574.15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>RFQ397</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CUST_12</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>48342.24</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>RFQ398</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>78267.84</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>RFQ40</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>77864.71000000001</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>RFQ405</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>42918.435</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>RFQ405</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>42918.435</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>RFQ415</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CUST_15</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>36324.18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>RFQ416</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CUST_13</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>78399.96000000001</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>RFQ417</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>43596.1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>RFQ419</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>CUST_15</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>70247.39999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>RFQ421</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>CUST_12</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>39204.9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>RFQ421</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>CUST_12</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>39204.9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>RFQ426</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>85865.05</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>RFQ445</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>87366.42</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>RFQ447</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>88231.86</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>RFQ45</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CUST_5</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>58551.69</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>RFQ451</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CUSTOMER14</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>70265.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>RFQ459</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CUST_3</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>33536.605</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>RFQ459</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CUST_3</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>33536.605</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>RFQ468</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CUST_12</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>86258.48</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>RFQ469</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>89385.73</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>RFQ475</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>81982.96000000001</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>RFQ48</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
         <v>2024</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>42248.7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>RFQ484</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CUST_12</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>77310.48</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>RFQ485</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>48192.96</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>RFQ492</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>69165.36</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>RFQ494</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CUST_14</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>67003.64999999999</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>RFQ496</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>59092.5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>RFQ497</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>79619.38</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>RFQ499</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D135" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>60782.64</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>RFQ5</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CUST_19</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>80457.12</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>RFQ502</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>68003.25999999999</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>RFQ505</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>13259.19</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>RFQ505</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>13259.19</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>RFQ507</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>Heath Mellen</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>61960.4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>RFQ510</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>CUST_5</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>42724</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>RFQ510</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>CUST_5</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>42724</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>RFQ513</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>CUST_16</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>73873.25999999999</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>RFQ521</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>89973.72</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>RFQ522</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>CUST_4</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>57669.56</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>RFQ528</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>CUST_19</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>67971.44</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>RFQ529</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>77239.5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>RFQ53</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>CUST_19</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>38578.32</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>RFQ538</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>CUST_14</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>58438.4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>RFQ542</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>63548.16</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>RFQ55</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>CUST_4</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>68818.59</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>RFQ554</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>72420.42</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>RFQ555</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CUST_15</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>91224.32000000001</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>RFQ559</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>74285.92</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>RFQ565</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>CUST_17</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>84654.45</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>RFQ566</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>78340.02</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>RFQ567</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>66954.88</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>RFQ572</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>24680.24</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>RFQ572</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>24680.24</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>RFQ58</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>89507.92</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>RFQ580</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>76749.53999999999</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>RFQ582</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>CUST_3</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>66382.14999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>RFQ586</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CUST_11</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>75136.2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>RFQ587</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>CUST_10</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>66589</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>RFQ589</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>CUST_4</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>44944.9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>RFQ59</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>CUST_4</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>48680.85</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>RFQ591</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>CUST_3</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>58612.73</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>RFQ593</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>CUST_17</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>91893.49000000001</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>RFQ594</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>CUST_11</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>30057.52</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>RFQ594</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>CUST_11</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>30057.52</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>RFQ60</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>CUST_19</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>83020.48</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>RFQ603</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>47160.32</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>RFQ603</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>47160.32</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>RFQ605</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>68127.14999999999</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>RFQ607</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>49842.54</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>RFQ610</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>CUST_12</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>83689.11</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>RFQ611</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>46549.65</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>RFQ614</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>CUST_4</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>78446.39999999999</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>RFQ620</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>CUST_13</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>67572.17999999999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>RFQ621</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>22502.4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>RFQ622</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>88697.84</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>RFQ623</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>CUST_19</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>65225.6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>RFQ624</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>43649.34</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>RFQ626</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>69461.08</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>RFQ628</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>CUST_11</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>73450.38</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>RFQ63</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>CUST_17</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>72967.23</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>RFQ631</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>77059.41</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>RFQ634</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>95294.08</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>RFQ635</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>37172.36</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>RFQ639</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>58752.19</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>RFQ64</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>CUST_16</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>57749.6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>RFQ641</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>CUST_1</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>80941.42</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>RFQ642</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>CUST_19</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>57779.38</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>RFQ643</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>CUST_15</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>48205.14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>RFQ645</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>CUST_4</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>57465.98</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>RFQ646</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>CUST_14</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>69340.52</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>RFQ652</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>CUST_5</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>71167.32000000001</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>RFQ655</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>CUST_3</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>33173.04</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>RFQ656</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>CUST_3</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>43807.96</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>RFQ662</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>48455.44</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>RFQ665</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>94455.89999999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>RFQ667</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>CUST_18</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>51082.5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>RFQ668</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>CUST_13</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Heath Mellen</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>66981.25</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>RFQ689</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>CUST_3</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>62812.2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>RFQ69</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>CUST_15</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Laura Jackson</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>64852.48</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>RFQ695</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>31948.26</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>RFQ695</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>CUST_2</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>James Aaron</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>31948.26</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>RFQ697</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>CUST_11</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>68059.53</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>RFQ75</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>CUST_6</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>David Tarver</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>89125.92</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>RFQ78</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>32944</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>RFQ82</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>CUST_16</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>77154.96000000001</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>RFQ83</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>CUST_16</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>59254.04</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>RFQ84</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>CUST_11</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Blanks</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>94129</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>RFQ85</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>CUST_3</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>70118.28</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>RFQ93</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>CUST_5</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Alfred Ludwig</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>76973.88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
